--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3g</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3g</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.576696</v>
+        <v>16.455531</v>
       </c>
       <c r="H2">
-        <v>27.153392</v>
+        <v>32.911062</v>
       </c>
       <c r="I2">
-        <v>0.5782460884249511</v>
+        <v>0.9534504730426685</v>
       </c>
       <c r="J2">
-        <v>0.4924113386768735</v>
+        <v>0.951543234202362</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N2">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O2">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P2">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q2">
-        <v>871.6422253162959</v>
+        <v>654.5702431092647</v>
       </c>
       <c r="R2">
-        <v>3486.568901265184</v>
+        <v>2618.280972437059</v>
       </c>
       <c r="S2">
-        <v>0.2353545376103182</v>
+        <v>0.3318039121997085</v>
       </c>
       <c r="T2">
-        <v>0.1566761172845091</v>
+        <v>0.2587136461405706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.576696</v>
+        <v>16.455531</v>
       </c>
       <c r="H3">
-        <v>27.153392</v>
+        <v>32.911062</v>
       </c>
       <c r="I3">
-        <v>0.5782460884249511</v>
+        <v>0.9534504730426685</v>
       </c>
       <c r="J3">
-        <v>0.4924113386768735</v>
+        <v>0.951543234202362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P3">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q3">
-        <v>213.9326239997707</v>
+        <v>259.295407817894</v>
       </c>
       <c r="R3">
-        <v>1283.595743998624</v>
+        <v>1555.772446907364</v>
       </c>
       <c r="S3">
-        <v>0.05776454184852894</v>
+        <v>0.131437735881059</v>
       </c>
       <c r="T3">
-        <v>0.05768100474355979</v>
+        <v>0.1537266498674512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.576696</v>
+        <v>16.455531</v>
       </c>
       <c r="H4">
-        <v>27.153392</v>
+        <v>32.911062</v>
       </c>
       <c r="I4">
-        <v>0.5782460884249511</v>
+        <v>0.9534504730426685</v>
       </c>
       <c r="J4">
-        <v>0.4924113386768735</v>
+        <v>0.951543234202362</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N4">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O4">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P4">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q4">
-        <v>333.6847170486107</v>
+        <v>212.59586146025</v>
       </c>
       <c r="R4">
-        <v>2002.108302291664</v>
+        <v>1275.5751687615</v>
       </c>
       <c r="S4">
-        <v>0.09009913701703429</v>
+        <v>0.1077655748830049</v>
       </c>
       <c r="T4">
-        <v>0.08996883872632233</v>
+        <v>0.1260402173451591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.576696</v>
+        <v>16.455531</v>
       </c>
       <c r="H5">
-        <v>27.153392</v>
+        <v>32.911062</v>
       </c>
       <c r="I5">
-        <v>0.5782460884249511</v>
+        <v>0.9534504730426685</v>
       </c>
       <c r="J5">
-        <v>0.4924113386768735</v>
+        <v>0.951543234202362</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N5">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O5">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P5">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q5">
-        <v>74.108687014964</v>
+        <v>173.232558329265</v>
       </c>
       <c r="R5">
-        <v>296.434748059856</v>
+        <v>692.93023331706</v>
       </c>
       <c r="S5">
-        <v>0.0200102923639174</v>
+        <v>0.08781218086080879</v>
       </c>
       <c r="T5">
-        <v>0.01332090277561316</v>
+        <v>0.06846878126132905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.576696</v>
+        <v>16.455531</v>
       </c>
       <c r="H6">
-        <v>27.153392</v>
+        <v>32.911062</v>
       </c>
       <c r="I6">
-        <v>0.5782460884249511</v>
+        <v>0.9534504730426685</v>
       </c>
       <c r="J6">
-        <v>0.4924113386768735</v>
+        <v>0.951543234202362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N6">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O6">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P6">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q6">
-        <v>453.6827383687947</v>
+        <v>135.230879081229</v>
       </c>
       <c r="R6">
-        <v>2722.096430212768</v>
+        <v>811.3852744873741</v>
       </c>
       <c r="S6">
-        <v>0.1225001359609722</v>
+        <v>0.06854899867769809</v>
       </c>
       <c r="T6">
-        <v>0.1223229804536483</v>
+        <v>0.08017338284057765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.576696</v>
+        <v>16.455531</v>
       </c>
       <c r="H7">
-        <v>27.153392</v>
+        <v>32.911062</v>
       </c>
       <c r="I7">
-        <v>0.5782460884249511</v>
+        <v>0.9534504730426685</v>
       </c>
       <c r="J7">
-        <v>0.4924113386768735</v>
+        <v>0.951543234202362</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N7">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O7">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P7">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q7">
-        <v>194.4998464584373</v>
+        <v>446.006181467798</v>
       </c>
       <c r="R7">
-        <v>1166.999078750624</v>
+        <v>2676.037088806788</v>
       </c>
       <c r="S7">
-        <v>0.05251744362418003</v>
+        <v>0.2260820705403892</v>
       </c>
       <c r="T7">
-        <v>0.05244149469322081</v>
+        <v>0.2644205567472744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06272599999999999</v>
+        <v>0.062726</v>
       </c>
       <c r="H8">
         <v>0.188178</v>
       </c>
       <c r="I8">
-        <v>0.002671567820517117</v>
+        <v>0.003634409267745564</v>
       </c>
       <c r="J8">
-        <v>0.003412501130228469</v>
+        <v>0.005440708741812466</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N8">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O8">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P8">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q8">
-        <v>4.027093942825998</v>
+        <v>2.495122951017001</v>
       </c>
       <c r="R8">
-        <v>24.16256365695599</v>
+        <v>14.970737706102</v>
       </c>
       <c r="S8">
-        <v>0.001087366817828492</v>
+        <v>0.001264786423278526</v>
       </c>
       <c r="T8">
-        <v>0.001085794305122702</v>
+        <v>0.001479266044451567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06272599999999999</v>
+        <v>0.062726</v>
       </c>
       <c r="H9">
         <v>0.188178</v>
       </c>
       <c r="I9">
-        <v>0.002671567820517117</v>
+        <v>0.003634409267745564</v>
       </c>
       <c r="J9">
-        <v>0.003412501130228469</v>
+        <v>0.005440708741812466</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P9">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q9">
-        <v>0.9883949506573331</v>
+        <v>0.9883949506573333</v>
       </c>
       <c r="R9">
         <v>8.895554555915998</v>
       </c>
       <c r="S9">
-        <v>0.0002668792651754761</v>
+        <v>0.0005010208069782315</v>
       </c>
       <c r="T9">
-        <v>0.0003997399702635159</v>
+        <v>0.0008789741734483448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06272599999999999</v>
+        <v>0.062726</v>
       </c>
       <c r="H10">
         <v>0.188178</v>
       </c>
       <c r="I10">
-        <v>0.002671567820517117</v>
+        <v>0.003634409267745564</v>
       </c>
       <c r="J10">
-        <v>0.003412501130228469</v>
+        <v>0.005440708741812466</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N10">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O10">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P10">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q10">
-        <v>1.541664301947333</v>
+        <v>0.8103833298333335</v>
       </c>
       <c r="R10">
-        <v>13.874978717526</v>
+        <v>7.293449968500001</v>
       </c>
       <c r="S10">
-        <v>0.0004162690590207286</v>
+        <v>0.0004107861028678665</v>
       </c>
       <c r="T10">
-        <v>0.0006235005974149336</v>
+        <v>0.0007206694217153292</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06272599999999999</v>
+        <v>0.062726</v>
       </c>
       <c r="H11">
         <v>0.188178</v>
       </c>
       <c r="I11">
-        <v>0.002671567820517117</v>
+        <v>0.003634409267745564</v>
       </c>
       <c r="J11">
-        <v>0.003412501130228469</v>
+        <v>0.005440708741812466</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N11">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O11">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P11">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q11">
-        <v>0.3423912196089999</v>
+        <v>0.66033636069</v>
       </c>
       <c r="R11">
-        <v>2.054347317654</v>
+        <v>3.96201816414</v>
       </c>
       <c r="S11">
-        <v>9.24500039493469E-05</v>
+        <v>0.0003347267770742307</v>
       </c>
       <c r="T11">
-        <v>9.23163059152732E-05</v>
+        <v>0.000391488986900343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06272599999999999</v>
+        <v>0.062726</v>
       </c>
       <c r="H12">
         <v>0.188178</v>
       </c>
       <c r="I12">
-        <v>0.002671567820517117</v>
+        <v>0.003634409267745564</v>
       </c>
       <c r="J12">
-        <v>0.003412501130228469</v>
+        <v>0.005440708741812466</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N12">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O12">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P12">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q12">
-        <v>2.096069872001333</v>
+        <v>0.515479696234</v>
       </c>
       <c r="R12">
-        <v>18.864628848012</v>
+        <v>4.639317266106</v>
       </c>
       <c r="S12">
-        <v>0.0005659656464494704</v>
+        <v>0.0002612984346149201</v>
       </c>
       <c r="T12">
-        <v>0.0008477207494300022</v>
+        <v>0.0004584132482924501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06272599999999999</v>
+        <v>0.062726</v>
       </c>
       <c r="H13">
         <v>0.188178</v>
       </c>
       <c r="I13">
-        <v>0.002671567820517117</v>
+        <v>0.003634409267745564</v>
       </c>
       <c r="J13">
-        <v>0.003412501130228469</v>
+        <v>0.005440708741812466</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N13">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O13">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P13">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q13">
-        <v>0.8986131359906664</v>
+        <v>1.700108233441333</v>
       </c>
       <c r="R13">
-        <v>8.087518223915998</v>
+        <v>15.300974100972</v>
       </c>
       <c r="S13">
-        <v>0.0002426370280936036</v>
+        <v>0.0008617907229317884</v>
       </c>
       <c r="T13">
-        <v>0.000363429202082042</v>
+        <v>0.001511896867004431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.716877</v>
+        <v>0.006460333333333333</v>
       </c>
       <c r="H14">
-        <v>3.433754</v>
+        <v>0.019381</v>
       </c>
       <c r="I14">
-        <v>0.073123638443165</v>
+        <v>0.0003743183901315603</v>
       </c>
       <c r="J14">
-        <v>0.06226917815008411</v>
+        <v>0.0005603544310443697</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N14">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O14">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P14">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q14">
-        <v>110.225822900827</v>
+        <v>0.2569799759465</v>
       </c>
       <c r="R14">
-        <v>440.9032916033079</v>
+        <v>1.541879855679</v>
       </c>
       <c r="S14">
-        <v>0.02976238051354984</v>
+        <v>0.0001302640354853443</v>
       </c>
       <c r="T14">
-        <v>0.01981289278445036</v>
+        <v>0.0001523539160131143</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.716877</v>
+        <v>0.006460333333333333</v>
       </c>
       <c r="H15">
-        <v>3.433754</v>
+        <v>0.019381</v>
       </c>
       <c r="I15">
-        <v>0.073123638443165</v>
+        <v>0.0003743183901315603</v>
       </c>
       <c r="J15">
-        <v>0.06226917815008411</v>
+        <v>0.0005603544310443697</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P15">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q15">
-        <v>27.05341577176466</v>
+        <v>0.1017976731535555</v>
       </c>
       <c r="R15">
-        <v>162.320494630588</v>
+        <v>0.9161790583819998</v>
       </c>
       <c r="S15">
-        <v>0.007304767913730764</v>
+        <v>5.160159136586159E-05</v>
       </c>
       <c r="T15">
-        <v>0.007294204008184957</v>
+        <v>9.052810878850008E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.716877</v>
+        <v>0.006460333333333333</v>
       </c>
       <c r="H16">
-        <v>3.433754</v>
+        <v>0.019381</v>
       </c>
       <c r="I16">
-        <v>0.073123638443165</v>
+        <v>0.0003743183901315603</v>
       </c>
       <c r="J16">
-        <v>0.06226917815008411</v>
+        <v>0.0005603544310443697</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N16">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O16">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P16">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q16">
-        <v>42.19698341571966</v>
+        <v>0.0834637381388889</v>
       </c>
       <c r="R16">
-        <v>253.181900494318</v>
+        <v>0.75117364325</v>
       </c>
       <c r="S16">
-        <v>0.011393724663526</v>
+        <v>4.230805651926431E-05</v>
       </c>
       <c r="T16">
-        <v>0.01137724744856422</v>
+        <v>7.422384158756492E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.716877</v>
+        <v>0.006460333333333333</v>
       </c>
       <c r="H17">
-        <v>3.433754</v>
+        <v>0.019381</v>
       </c>
       <c r="I17">
-        <v>0.073123638443165</v>
+        <v>0.0003743183901315603</v>
       </c>
       <c r="J17">
-        <v>0.06226917815008411</v>
+        <v>0.0005603544310443697</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N17">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O17">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P17">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q17">
-        <v>9.371610017355499</v>
+        <v>0.06800996400499999</v>
       </c>
       <c r="R17">
-        <v>37.486440069422</v>
+        <v>0.40805978403</v>
       </c>
       <c r="S17">
-        <v>0.002530454443620554</v>
+        <v>3.447448514956936E-05</v>
       </c>
       <c r="T17">
-        <v>0.001684529991294376</v>
+        <v>4.032059037249597E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.716877</v>
+        <v>0.006460333333333333</v>
       </c>
       <c r="H18">
-        <v>3.433754</v>
+        <v>0.019381</v>
       </c>
       <c r="I18">
-        <v>0.073123638443165</v>
+        <v>0.0003743183901315603</v>
       </c>
       <c r="J18">
-        <v>0.06226917815008411</v>
+        <v>0.0005603544310443697</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N18">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O18">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P18">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q18">
-        <v>57.37165056965266</v>
+        <v>0.05309075445966666</v>
       </c>
       <c r="R18">
-        <v>344.229903417916</v>
+        <v>0.477816790137</v>
       </c>
       <c r="S18">
-        <v>0.01549107867836667</v>
+        <v>2.691188641218296E-05</v>
       </c>
       <c r="T18">
-        <v>0.01546867601015139</v>
+        <v>4.721331486760394E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.716877</v>
+        <v>0.006460333333333333</v>
       </c>
       <c r="H19">
-        <v>3.433754</v>
+        <v>0.019381</v>
       </c>
       <c r="I19">
-        <v>0.073123638443165</v>
+        <v>0.0003743183901315603</v>
       </c>
       <c r="J19">
-        <v>0.06226917815008411</v>
+        <v>0.0005603544310443697</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N19">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O19">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P19">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q19">
-        <v>24.59599249243133</v>
+        <v>0.1750990959215555</v>
       </c>
       <c r="R19">
-        <v>147.575954954588</v>
+        <v>1.575891863294</v>
       </c>
       <c r="S19">
-        <v>0.006641232230371168</v>
+        <v>8.875833519933779E-05</v>
       </c>
       <c r="T19">
-        <v>0.006631627907438808</v>
+        <v>0.0001557146594150904</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.066105666666665</v>
+        <v>0.7342085</v>
       </c>
       <c r="H20">
-        <v>24.198317</v>
+        <v>1.468417</v>
       </c>
       <c r="I20">
-        <v>0.3435441178451908</v>
+        <v>0.04254079929945427</v>
       </c>
       <c r="J20">
-        <v>0.4388227322648066</v>
+        <v>0.04245570262478099</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N20">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O20">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P20">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q20">
-        <v>517.8548811087555</v>
+        <v>29.20544079300075</v>
       </c>
       <c r="R20">
-        <v>3107.129286652533</v>
+        <v>116.821763172003</v>
       </c>
       <c r="S20">
-        <v>0.1398274344136673</v>
+        <v>0.01480433859413468</v>
       </c>
       <c r="T20">
-        <v>0.1396252207598863</v>
+        <v>0.01154321656726842</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.066105666666665</v>
+        <v>0.7342085</v>
       </c>
       <c r="H21">
-        <v>24.198317</v>
+        <v>1.468417</v>
       </c>
       <c r="I21">
-        <v>0.3435441178451908</v>
+        <v>0.04254079929945427</v>
       </c>
       <c r="J21">
-        <v>0.4388227322648066</v>
+        <v>0.04245570262478099</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P21">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q21">
-        <v>127.1003748429971</v>
+        <v>11.56917345486233</v>
       </c>
       <c r="R21">
-        <v>1143.903373586974</v>
+        <v>69.415040729174</v>
       </c>
       <c r="S21">
-        <v>0.03431872514025673</v>
+        <v>0.005864453897271895</v>
       </c>
       <c r="T21">
-        <v>0.05140364186040414</v>
+        <v>0.006858934725911096</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.066105666666665</v>
+        <v>0.7342085</v>
       </c>
       <c r="H22">
-        <v>24.198317</v>
+        <v>1.468417</v>
       </c>
       <c r="I22">
-        <v>0.3435441178451908</v>
+        <v>0.04254079929945427</v>
       </c>
       <c r="J22">
-        <v>0.4388227322648066</v>
+        <v>0.04245570262478099</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N22">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O22">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P22">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q22">
-        <v>198.2467742568487</v>
+        <v>9.485545531708334</v>
       </c>
       <c r="R22">
-        <v>1784.220968311639</v>
+        <v>56.91327319025001</v>
       </c>
       <c r="S22">
-        <v>0.05352916200339732</v>
+        <v>0.004808255721829257</v>
       </c>
       <c r="T22">
-        <v>0.08017762493987578</v>
+        <v>0.005623628852612732</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.066105666666665</v>
+        <v>0.7342085</v>
       </c>
       <c r="H23">
-        <v>24.198317</v>
+        <v>1.468417</v>
       </c>
       <c r="I23">
-        <v>0.3435441178451908</v>
+        <v>0.04254079929945427</v>
       </c>
       <c r="J23">
-        <v>0.4388227322648066</v>
+        <v>0.04245570262478099</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N23">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O23">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P23">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q23">
-        <v>44.02901120277183</v>
+        <v>7.729244155177501</v>
       </c>
       <c r="R23">
-        <v>264.1740672166309</v>
+        <v>30.91697662071</v>
       </c>
       <c r="S23">
-        <v>0.01188839557343339</v>
+        <v>0.003917980500996481</v>
       </c>
       <c r="T23">
-        <v>0.01187120298231864</v>
+        <v>0.003054921848873094</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.066105666666665</v>
+        <v>0.7342085</v>
       </c>
       <c r="H24">
-        <v>24.198317</v>
+        <v>1.468417</v>
       </c>
       <c r="I24">
-        <v>0.3435441178451908</v>
+        <v>0.04254079929945427</v>
       </c>
       <c r="J24">
-        <v>0.4388227322648066</v>
+        <v>0.04245570262478099</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N24">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O24">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P24">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q24">
-        <v>269.5392831087464</v>
+        <v>6.033695350451501</v>
       </c>
       <c r="R24">
-        <v>2425.853547978717</v>
+        <v>36.20217210270901</v>
       </c>
       <c r="S24">
-        <v>0.07277905028161745</v>
+        <v>0.003058500968194505</v>
       </c>
       <c r="T24">
-        <v>0.1090106995620357</v>
+        <v>0.003577154645164976</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.066105666666665</v>
+        <v>0.7342085</v>
       </c>
       <c r="H25">
-        <v>24.198317</v>
+        <v>1.468417</v>
       </c>
       <c r="I25">
-        <v>0.3435441178451908</v>
+        <v>0.04254079929945427</v>
       </c>
       <c r="J25">
-        <v>0.4388227322648066</v>
+        <v>0.04245570262478099</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N25">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O25">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P25">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q25">
-        <v>115.5550889321082</v>
+        <v>19.89978503192633</v>
       </c>
       <c r="R25">
-        <v>1039.995800388974</v>
+        <v>119.398710191558</v>
       </c>
       <c r="S25">
-        <v>0.03120135043281853</v>
+        <v>0.01008726961702745</v>
       </c>
       <c r="T25">
-        <v>0.04673434216028607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.05669233333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.170077</v>
-      </c>
-      <c r="I26">
-        <v>0.00241458746617612</v>
-      </c>
-      <c r="J26">
-        <v>0.003084249778007352</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>64.20135099999999</v>
-      </c>
-      <c r="N26">
-        <v>128.402702</v>
-      </c>
-      <c r="O26">
-        <v>0.4070144914449588</v>
-      </c>
-      <c r="P26">
-        <v>0.3181813759721767</v>
-      </c>
-      <c r="Q26">
-        <v>3.639724391342333</v>
-      </c>
-      <c r="R26">
-        <v>21.838346348054</v>
-      </c>
-      <c r="S26">
-        <v>0.0009827720895950452</v>
-      </c>
-      <c r="T26">
-        <v>0.0009813508382082595</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.05669233333333334</v>
-      </c>
-      <c r="H27">
-        <v>0.170077</v>
-      </c>
-      <c r="I27">
-        <v>0.00241458746617612</v>
-      </c>
-      <c r="J27">
-        <v>0.003084249778007352</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>15.75734066666666</v>
-      </c>
-      <c r="N27">
-        <v>47.27202199999999</v>
-      </c>
-      <c r="O27">
-        <v>0.09989612209201489</v>
-      </c>
-      <c r="P27">
-        <v>0.11713987922892</v>
-      </c>
-      <c r="Q27">
-        <v>0.8933204095215554</v>
-      </c>
-      <c r="R27">
-        <v>8.039883685693999</v>
-      </c>
-      <c r="S27">
-        <v>0.0002412079243229785</v>
-      </c>
-      <c r="T27">
-        <v>0.0003612886465076045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.05669233333333334</v>
-      </c>
-      <c r="H28">
-        <v>0.170077</v>
-      </c>
-      <c r="I28">
-        <v>0.00241458746617612</v>
-      </c>
-      <c r="J28">
-        <v>0.003084249778007352</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>24.57775566666666</v>
-      </c>
-      <c r="N28">
-        <v>73.733267</v>
-      </c>
-      <c r="O28">
-        <v>0.1558145205313014</v>
-      </c>
-      <c r="P28">
-        <v>0.1827107372630203</v>
-      </c>
-      <c r="Q28">
-        <v>1.393370316839889</v>
-      </c>
-      <c r="R28">
-        <v>12.540332851559</v>
-      </c>
-      <c r="S28">
-        <v>0.0003762277883231221</v>
-      </c>
-      <c r="T28">
-        <v>0.0005635255508430299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.05669233333333334</v>
-      </c>
-      <c r="H29">
-        <v>0.170077</v>
-      </c>
-      <c r="I29">
-        <v>0.00241458746617612</v>
-      </c>
-      <c r="J29">
-        <v>0.003084249778007352</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>5.4585215</v>
-      </c>
-      <c r="N29">
-        <v>10.917043</v>
-      </c>
-      <c r="O29">
-        <v>0.03460514954527786</v>
-      </c>
-      <c r="P29">
-        <v>0.02705238837799083</v>
-      </c>
-      <c r="Q29">
-        <v>0.3094563203851667</v>
-      </c>
-      <c r="R29">
-        <v>1.856737922311</v>
-      </c>
-      <c r="S29">
-        <v>8.355716035717818E-05</v>
-      </c>
-      <c r="T29">
-        <v>8.343632284938686E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.05669233333333334</v>
-      </c>
-      <c r="H30">
-        <v>0.170077</v>
-      </c>
-      <c r="I30">
-        <v>0.00241458746617612</v>
-      </c>
-      <c r="J30">
-        <v>0.003084249778007352</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>33.41628466666666</v>
-      </c>
-      <c r="N30">
-        <v>100.248854</v>
-      </c>
-      <c r="O30">
-        <v>0.2118477555025798</v>
-      </c>
-      <c r="P30">
-        <v>0.2484162545532246</v>
-      </c>
-      <c r="Q30">
-        <v>1.894447149084222</v>
-      </c>
-      <c r="R30">
-        <v>17.050024341758</v>
-      </c>
-      <c r="S30">
-        <v>0.0005115249351740725</v>
-      </c>
-      <c r="T30">
-        <v>0.0007661777779592008</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.05669233333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.170077</v>
-      </c>
-      <c r="I31">
-        <v>0.00241458746617612</v>
-      </c>
-      <c r="J31">
-        <v>0.003084249778007352</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>14.32600733333333</v>
-      </c>
-      <c r="N31">
-        <v>42.978022</v>
-      </c>
-      <c r="O31">
-        <v>0.09082196088386704</v>
-      </c>
-      <c r="P31">
-        <v>0.1064993646046676</v>
-      </c>
-      <c r="Q31">
-        <v>0.8121747830771111</v>
-      </c>
-      <c r="R31">
-        <v>7.309573047693999</v>
-      </c>
-      <c r="S31">
-        <v>0.0002192975684037232</v>
-      </c>
-      <c r="T31">
-        <v>0.00032847064163987</v>
+        <v>0.01179784598495067</v>
       </c>
     </row>
   </sheetData>
